--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H2">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I2">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J2">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N2">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q2">
-        <v>1.455797380212</v>
+        <v>4.228258407368333</v>
       </c>
       <c r="R2">
-        <v>13.102176421908</v>
+        <v>38.05432566631499</v>
       </c>
       <c r="S2">
-        <v>0.004092207832981071</v>
+        <v>0.009232504081647233</v>
       </c>
       <c r="T2">
-        <v>0.004092207832981071</v>
+        <v>0.009232504081647231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H3">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I3">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J3">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>115.631084</v>
       </c>
       <c r="O3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q3">
-        <v>5.205364508428</v>
+        <v>11.28606917063422</v>
       </c>
       <c r="R3">
-        <v>46.84828057585201</v>
+        <v>101.574622535708</v>
       </c>
       <c r="S3">
-        <v>0.01463214160462956</v>
+        <v>0.02464340388989771</v>
       </c>
       <c r="T3">
-        <v>0.01463214160462956</v>
+        <v>0.0246434038898977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H4">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I4">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J4">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N4">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q4">
-        <v>2.653372746724</v>
+        <v>6.428478682831332</v>
       </c>
       <c r="R4">
-        <v>23.88035472051601</v>
+        <v>57.856308145482</v>
       </c>
       <c r="S4">
-        <v>0.007458560432620945</v>
+        <v>0.01403673805143866</v>
       </c>
       <c r="T4">
-        <v>0.007458560432620944</v>
+        <v>0.01403673805143866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H5">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I5">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J5">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N5">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q5">
-        <v>1.70510980934</v>
+        <v>7.399407583414775</v>
       </c>
       <c r="R5">
-        <v>15.34598828406</v>
+        <v>66.59466825073299</v>
       </c>
       <c r="S5">
-        <v>0.004793018460342253</v>
+        <v>0.01615678469333848</v>
       </c>
       <c r="T5">
-        <v>0.004793018460342253</v>
+        <v>0.01615678469333848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.833609</v>
       </c>
       <c r="I6">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J6">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N6">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O6">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P6">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q6">
-        <v>42.520571193236</v>
+        <v>56.95975550182833</v>
       </c>
       <c r="R6">
-        <v>382.685140739124</v>
+        <v>512.6377995164549</v>
       </c>
       <c r="S6">
-        <v>0.1195241981232653</v>
+        <v>0.1243729981696097</v>
       </c>
       <c r="T6">
-        <v>0.1195241981232653</v>
+        <v>0.1243729981696097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.833609</v>
       </c>
       <c r="I7">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J7">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>115.631084</v>
       </c>
       <c r="O7">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P7">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q7">
         <v>152.0370040335729</v>
@@ -883,10 +883,10 @@
         <v>1368.333036302156</v>
       </c>
       <c r="S7">
-        <v>0.4273719868341558</v>
+        <v>0.3319764605340264</v>
       </c>
       <c r="T7">
-        <v>0.4273719868341558</v>
+        <v>0.3319764605340264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.833609</v>
       </c>
       <c r="I8">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J8">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N8">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O8">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P8">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q8">
-        <v>77.49905743259423</v>
+        <v>86.59938413051933</v>
       </c>
       <c r="R8">
-        <v>697.491516893348</v>
+        <v>779.3944571746739</v>
       </c>
       <c r="S8">
-        <v>0.2178477954316199</v>
+        <v>0.1890918412318095</v>
       </c>
       <c r="T8">
-        <v>0.2178477954316199</v>
+        <v>0.1890918412318094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.833609</v>
       </c>
       <c r="I9">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J9">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N9">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O9">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P9">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q9">
-        <v>49.80242719613111</v>
+        <v>99.67897091512009</v>
       </c>
       <c r="R9">
-        <v>448.2218447651799</v>
+        <v>897.1107382360808</v>
       </c>
       <c r="S9">
-        <v>0.1399933022573502</v>
+        <v>0.2176514340335761</v>
       </c>
       <c r="T9">
-        <v>0.1399933022573502</v>
+        <v>0.2176514340335761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H10">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I10">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J10">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N10">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O10">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P10">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q10">
-        <v>3.021331210584</v>
+        <v>4.80692876619</v>
       </c>
       <c r="R10">
-        <v>27.191980895256</v>
+        <v>43.26235889571</v>
       </c>
       <c r="S10">
-        <v>0.008492881917524493</v>
+        <v>0.01049604474899129</v>
       </c>
       <c r="T10">
-        <v>0.008492881917524493</v>
+        <v>0.01049604474899129</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H11">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I11">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J11">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>115.631084</v>
       </c>
       <c r="O11">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P11">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q11">
-        <v>10.80310382856267</v>
+        <v>12.830656342808</v>
       </c>
       <c r="R11">
-        <v>97.22793445706399</v>
+        <v>115.475907085272</v>
       </c>
       <c r="S11">
-        <v>0.03036723840052114</v>
+        <v>0.02801604718594215</v>
       </c>
       <c r="T11">
-        <v>0.03036723840052114</v>
+        <v>0.02801604718594215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H12">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I12">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J12">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N12">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O12">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P12">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q12">
-        <v>5.506753894434667</v>
+        <v>7.308266460132001</v>
       </c>
       <c r="R12">
-        <v>49.56078504991201</v>
+        <v>65.774398141188</v>
       </c>
       <c r="S12">
-        <v>0.01547933917687291</v>
+        <v>0.01595777585526752</v>
       </c>
       <c r="T12">
-        <v>0.01547933917687291</v>
+        <v>0.01595777585526752</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H13">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I13">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J13">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N13">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O13">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P13">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q13">
-        <v>3.538748973213333</v>
+        <v>8.412074603457999</v>
       </c>
       <c r="R13">
-        <v>31.84874075891999</v>
+        <v>75.708671431122</v>
       </c>
       <c r="S13">
-        <v>0.009947329528116394</v>
+        <v>0.01836796752445539</v>
       </c>
       <c r="T13">
-        <v>0.009947329528116394</v>
+        <v>0.01836796752445539</v>
       </c>
     </row>
   </sheetData>
